--- a/product_image/product_image/10번 카테고리 데이터.xlsx
+++ b/product_image/product_image/10번 카테고리 데이터.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Workspace\Kmarket\product_image\product_image\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java2\Desktop\Workspace\Kmarket\product_image\product_image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB0A1DC-51D1-44DF-8327-64E2F3FA6276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38895" yWindow="0" windowWidth="18660" windowHeight="15600" tabRatio="640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38895" yWindow="0" windowWidth="18660" windowHeight="15600" tabRatio="640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="10&gt;10" sheetId="1" r:id="rId1"/>
@@ -3539,11 +3538,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3860,11 +3859,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4146,14 +4145,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N248"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="72.25" customWidth="1"/>
@@ -4163,7 +4162,7 @@
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4186,7 +4185,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="17.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -4198,10 +4197,10 @@
       </c>
       <c r="D2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" spans="1:14" ht="54" x14ac:dyDescent="0.3">
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:14" ht="54">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
@@ -4212,7 +4211,7 @@
         <v>39900</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="54">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -4223,7 +4222,7 @@
         <v>38900</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="76.5" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>32</v>
       </c>
@@ -4234,7 +4233,7 @@
         <v>18400</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="52.5">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -4245,7 +4244,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="78.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
@@ -4256,7 +4255,7 @@
         <v>37900</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="78.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -4267,7 +4266,7 @@
         <v>57900</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="52.5">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -4278,7 +4277,7 @@
         <v>26600</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="52.5">
       <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
@@ -4289,7 +4288,7 @@
         <v>49900</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="52.5">
       <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
@@ -4300,7 +4299,7 @@
         <v>52900</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="80.25" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -4311,7 +4310,7 @@
         <v>39900</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="52.5">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -4322,7 +4321,7 @@
         <v>49900</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="52.5" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -4333,7 +4332,7 @@
         <v>59100</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="78.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -4344,7 +4343,7 @@
         <v>32900</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="78.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -4355,7 +4354,7 @@
         <v>66900</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="78.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
@@ -4366,7 +4365,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="52.5">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -4377,7 +4376,7 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="26.25">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
@@ -4388,7 +4387,7 @@
         <v>54690</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="52.5">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
@@ -4399,7 +4398,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="52.5">
       <c r="A21" s="8" t="s">
         <v>51</v>
       </c>
@@ -4410,7 +4409,7 @@
         <v>336260</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="27">
       <c r="A22" s="15" t="s">
         <v>49</v>
       </c>
@@ -4421,7 +4420,7 @@
         <v>63600</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="26.25">
       <c r="A23" s="3" t="s">
         <v>39</v>
       </c>
@@ -4432,7 +4431,7 @@
         <v>29900</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="52.5">
       <c r="A24" s="8" t="s">
         <v>41</v>
       </c>
@@ -4443,7 +4442,7 @@
         <v>52900</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="52.5">
       <c r="A25" s="8" t="s">
         <v>43</v>
       </c>
@@ -4454,7 +4453,7 @@
         <v>35260</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="52.5">
       <c r="A26" s="15" t="s">
         <v>44</v>
       </c>
@@ -4465,7 +4464,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="26.25">
       <c r="A27" s="8" t="s">
         <v>46</v>
       </c>
@@ -4476,7 +4475,7 @@
         <v>240530</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="52.5">
       <c r="A28" s="8" t="s">
         <v>48</v>
       </c>
@@ -4487,7 +4486,7 @@
         <v>34900</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="26.25">
       <c r="A29" s="8" t="s">
         <v>53</v>
       </c>
@@ -4498,7 +4497,7 @@
         <v>147260</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="52.5">
       <c r="A30" s="8" t="s">
         <v>55</v>
       </c>
@@ -4509,7 +4508,7 @@
         <v>59900</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="52.5">
       <c r="A31" s="15" t="s">
         <v>57</v>
       </c>
@@ -4520,7 +4519,7 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="52.5">
       <c r="A32" s="3" t="s">
         <v>59</v>
       </c>
@@ -4531,7 +4530,7 @@
         <v>44640</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="52.5">
       <c r="A33" s="8" t="s">
         <v>61</v>
       </c>
@@ -4542,7 +4541,7 @@
         <v>60830</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="52.5">
       <c r="A34" s="3" t="s">
         <v>63</v>
       </c>
@@ -4553,7 +4552,7 @@
         <v>29900</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="26.25">
       <c r="A35" s="15" t="s">
         <v>66</v>
       </c>
@@ -4564,7 +4563,7 @@
         <v>79000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="26.25">
       <c r="A36" s="8" t="s">
         <v>68</v>
       </c>
@@ -4575,7 +4574,7 @@
         <v>104250</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="52.5">
       <c r="A37" s="8" t="s">
         <v>3</v>
       </c>
@@ -4586,7 +4585,7 @@
         <v>39900</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="52.5">
       <c r="A38" s="8" t="s">
         <v>24</v>
       </c>
@@ -4597,7 +4596,7 @@
         <v>101760</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="52.5">
       <c r="A39" s="8" t="s">
         <v>72</v>
       </c>
@@ -4608,7 +4607,7 @@
         <v>69350</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="52.5">
       <c r="A40" s="3" t="s">
         <v>74</v>
       </c>
@@ -4619,7 +4618,7 @@
         <v>19900</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="52.5">
       <c r="A41" s="8" t="s">
         <v>3</v>
       </c>
@@ -4630,7 +4629,7 @@
         <v>49900</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="26.25">
       <c r="A42" s="3" t="s">
         <v>39</v>
       </c>
@@ -4641,7 +4640,7 @@
         <v>29900</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="52.5">
       <c r="A43" s="8" t="s">
         <v>78</v>
       </c>
@@ -4652,7 +4651,7 @@
         <v>195630</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="52.5">
       <c r="A44" s="15" t="s">
         <v>43</v>
       </c>
@@ -4663,7 +4662,7 @@
         <v>25420</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="53.25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="53.25">
       <c r="A45" s="8" t="s">
         <v>81</v>
       </c>
@@ -4674,7 +4673,7 @@
         <v>10050</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="52.5">
       <c r="A46" s="8" t="s">
         <v>51</v>
       </c>
@@ -4685,7 +4684,7 @@
         <v>159000</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="52.5">
       <c r="A47" s="8" t="s">
         <v>51</v>
       </c>
@@ -4696,7 +4695,7 @@
         <v>55460</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="26.25">
       <c r="A48" s="8" t="s">
         <v>46</v>
       </c>
@@ -4707,7 +4706,7 @@
         <v>173530</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="26.25">
       <c r="A49" s="8" t="s">
         <v>86</v>
       </c>
@@ -4718,7 +4717,7 @@
         <v>35100</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="52.5">
       <c r="A50" s="8" t="s">
         <v>88</v>
       </c>
@@ -4729,7 +4728,7 @@
         <v>67030</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="52.5">
       <c r="A51" s="8" t="s">
         <v>90</v>
       </c>
@@ -4740,7 +4739,7 @@
         <v>62980</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="52.5">
       <c r="A52" s="8" t="s">
         <v>92</v>
       </c>
@@ -4751,7 +4750,7 @@
         <v>259000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="52.5">
       <c r="A53" s="8" t="s">
         <v>94</v>
       </c>
@@ -4762,7 +4761,7 @@
         <v>257660</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="26.25">
       <c r="A54" s="8" t="s">
         <v>51</v>
       </c>
@@ -4773,7 +4772,7 @@
         <v>390930</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="52.5">
       <c r="A55" s="8" t="s">
         <v>97</v>
       </c>
@@ -4784,7 +4783,7 @@
         <v>270690</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="52.5">
       <c r="A56" s="3" t="s">
         <v>99</v>
       </c>
@@ -4795,7 +4794,7 @@
         <v>11900</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="27">
       <c r="A57" s="8" t="s">
         <v>101</v>
       </c>
@@ -4806,7 +4805,7 @@
         <v>79900</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="26.25">
       <c r="A58" s="3" t="s">
         <v>103</v>
       </c>
@@ -4817,7 +4816,7 @@
         <v>26910</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="52.5">
       <c r="A59" s="8" t="s">
         <v>105</v>
       </c>
@@ -4828,7 +4827,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="52.5">
       <c r="A60" s="8" t="s">
         <v>107</v>
       </c>
@@ -4839,7 +4838,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="52.5">
       <c r="A61" s="8" t="s">
         <v>109</v>
       </c>
@@ -4850,7 +4849,7 @@
         <v>133510</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="26.25">
       <c r="A62" s="3" t="s">
         <v>59</v>
       </c>
@@ -4861,7 +4860,7 @@
         <v>89100</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="26.25">
       <c r="A63" s="8" t="s">
         <v>112</v>
       </c>
@@ -4872,7 +4871,7 @@
         <v>91590</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="52.5">
       <c r="A64" s="15" t="s">
         <v>114</v>
       </c>
@@ -4883,7 +4882,7 @@
         <v>39350</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="52.5">
       <c r="A65" s="3" t="s">
         <v>30</v>
       </c>
@@ -4894,7 +4893,7 @@
         <v>298000</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="52.5">
       <c r="A66" s="3" t="s">
         <v>117</v>
       </c>
@@ -4905,7 +4904,7 @@
         <v>1290000</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="26.25">
       <c r="A67" s="8" t="s">
         <v>119</v>
       </c>
@@ -4916,7 +4915,7 @@
         <v>109860</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="52.5">
       <c r="A68" s="8" t="s">
         <v>121</v>
       </c>
@@ -4927,7 +4926,7 @@
         <v>62820</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="52.5">
       <c r="A69" s="8" t="s">
         <v>123</v>
       </c>
@@ -4938,7 +4937,7 @@
         <v>38310</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="52.5">
       <c r="A70" s="8" t="s">
         <v>3</v>
       </c>
@@ -4949,7 +4948,7 @@
         <v>39900</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="26.25">
       <c r="A71" s="8" t="s">
         <v>53</v>
       </c>
@@ -4960,7 +4959,7 @@
         <v>68820</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="27">
       <c r="A72" s="8" t="s">
         <v>46</v>
       </c>
@@ -4971,7 +4970,7 @@
         <v>66750</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="52.5">
       <c r="A73" s="8" t="s">
         <v>128</v>
       </c>
@@ -4982,7 +4981,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="26.25">
       <c r="A74" s="3" t="s">
         <v>130</v>
       </c>
@@ -4993,7 +4992,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="26.25">
       <c r="A75" s="8" t="s">
         <v>132</v>
       </c>
@@ -5004,7 +5003,7 @@
         <v>90160</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="26.25">
       <c r="A76" s="3" t="s">
         <v>134</v>
       </c>
@@ -5015,7 +5014,7 @@
         <v>39900</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="52.5">
       <c r="A77" s="15" t="s">
         <v>136</v>
       </c>
@@ -5026,7 +5025,7 @@
         <v>136040</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="52.5">
       <c r="A78" s="3" t="s">
         <v>59</v>
       </c>
@@ -5037,7 +5036,7 @@
         <v>237150</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="26.25">
       <c r="A79" s="8" t="s">
         <v>46</v>
       </c>
@@ -5048,7 +5047,7 @@
         <v>200600</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="26.25">
       <c r="A80" s="8" t="s">
         <v>46</v>
       </c>
@@ -5059,7 +5058,7 @@
         <v>186930</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="52.5">
       <c r="A81" s="15" t="s">
         <v>141</v>
       </c>
@@ -5070,7 +5069,7 @@
         <v>197120</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="52.5">
       <c r="A82" s="3" t="s">
         <v>30</v>
       </c>
@@ -5081,7 +5080,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="52.5">
       <c r="A83" s="15" t="s">
         <v>143</v>
       </c>
@@ -5092,7 +5091,7 @@
         <v>98100</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="53.25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="53.25">
       <c r="A84" s="8" t="s">
         <v>145</v>
       </c>
@@ -5103,7 +5102,7 @@
         <v>231310</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="26.25">
       <c r="A85" s="15" t="s">
         <v>147</v>
       </c>
@@ -5114,7 +5113,7 @@
         <v>106530</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="52.5">
       <c r="A86" s="8" t="s">
         <v>149</v>
       </c>
@@ -5125,7 +5124,7 @@
         <v>76710</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="52.5">
       <c r="A87" s="15" t="s">
         <v>151</v>
       </c>
@@ -5136,7 +5135,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="52.5">
       <c r="A88" s="8" t="s">
         <v>153</v>
       </c>
@@ -5147,7 +5146,7 @@
         <v>352240</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="26.25">
       <c r="A89" s="8" t="s">
         <v>65</v>
       </c>
@@ -5158,7 +5157,7 @@
         <v>57900</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="52.5">
       <c r="A90" s="8" t="s">
         <v>61</v>
       </c>
@@ -5169,7 +5168,7 @@
         <v>22330</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="52.5">
       <c r="A91" s="8" t="s">
         <v>43</v>
       </c>
@@ -5180,7 +5179,7 @@
         <v>31160</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="26.25">
       <c r="A92" s="8" t="s">
         <v>114</v>
       </c>
@@ -5191,7 +5190,7 @@
         <v>39690</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="26.25">
       <c r="A93" s="8" t="s">
         <v>159</v>
       </c>
@@ -5202,7 +5201,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="26.25">
       <c r="A94" s="8" t="s">
         <v>68</v>
       </c>
@@ -5213,7 +5212,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="52.5">
       <c r="A95" s="15" t="s">
         <v>163</v>
       </c>
@@ -5224,7 +5223,7 @@
         <v>258300</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="26.25">
       <c r="A96" s="3" t="s">
         <v>165</v>
       </c>
@@ -5235,7 +5234,7 @@
         <v>120600</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="52.5">
       <c r="A97" s="8" t="s">
         <v>167</v>
       </c>
@@ -5246,7 +5245,7 @@
         <v>103060</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="52.5">
       <c r="A98" s="3" t="s">
         <v>59</v>
       </c>
@@ -5257,7 +5256,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="52.5">
       <c r="A99" s="8" t="s">
         <v>170</v>
       </c>
@@ -5268,7 +5267,7 @@
         <v>47180</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="52.5">
       <c r="A100" s="3" t="s">
         <v>172</v>
       </c>
@@ -5279,7 +5278,7 @@
         <v>93910</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="52.5">
       <c r="A101" s="8" t="s">
         <v>174</v>
       </c>
@@ -5290,200 +5289,200 @@
         <v>83000</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="26.25">
       <c r="A103" s="8"/>
       <c r="B103" s="14"/>
       <c r="C103" s="10"/>
     </row>
-    <row r="104" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="26.25">
       <c r="A104" s="8"/>
       <c r="B104" s="14"/>
       <c r="C104" s="10"/>
     </row>
-    <row r="105" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="26.25">
       <c r="A105" s="15"/>
       <c r="B105" s="14"/>
       <c r="C105" s="10"/>
     </row>
-    <row r="106" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="26.25">
       <c r="A106" s="8"/>
       <c r="B106" s="14"/>
       <c r="C106" s="10"/>
     </row>
-    <row r="107" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="26.25">
       <c r="B107" s="14"/>
       <c r="C107" s="10"/>
     </row>
-    <row r="108" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="26.25">
       <c r="A108" s="8"/>
       <c r="B108" s="14"/>
       <c r="C108" s="10"/>
     </row>
-    <row r="109" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="26.25">
       <c r="A109" s="8"/>
       <c r="B109" s="14"/>
       <c r="C109" s="10"/>
     </row>
-    <row r="110" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="26.25">
       <c r="B110" s="14"/>
       <c r="C110" s="18"/>
     </row>
-    <row r="111" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="26.25">
       <c r="A111" s="8"/>
       <c r="B111" s="14"/>
       <c r="C111" s="10"/>
     </row>
-    <row r="112" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="26.25">
       <c r="A112" s="15"/>
       <c r="B112" s="14"/>
       <c r="C112" s="10"/>
     </row>
-    <row r="113" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="26.25">
       <c r="A113" s="3"/>
       <c r="B113" s="14"/>
       <c r="C113" s="10"/>
     </row>
-    <row r="114" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" ht="26.25">
       <c r="A114" s="8"/>
       <c r="B114" s="14"/>
       <c r="C114" s="10"/>
     </row>
-    <row r="115" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" ht="26.25">
       <c r="A115" s="8"/>
       <c r="B115" s="14"/>
       <c r="C115" s="10"/>
     </row>
-    <row r="116" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" ht="26.25">
       <c r="A116" s="8"/>
       <c r="B116" s="14"/>
       <c r="C116" s="10"/>
     </row>
-    <row r="117" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="26.25">
       <c r="A117" s="8"/>
       <c r="B117" s="14"/>
       <c r="C117" s="10"/>
     </row>
-    <row r="118" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="26.25">
       <c r="A118" s="8"/>
       <c r="B118" s="14"/>
       <c r="C118" s="10"/>
     </row>
-    <row r="119" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" ht="26.25">
       <c r="A119" s="8"/>
       <c r="B119" s="14"/>
       <c r="C119" s="10"/>
     </row>
-    <row r="120" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="26.25">
       <c r="A120" s="8"/>
       <c r="B120" s="14"/>
       <c r="C120" s="10"/>
     </row>
-    <row r="121" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" ht="26.25">
       <c r="A121" s="8"/>
       <c r="B121" s="14"/>
       <c r="C121" s="10"/>
     </row>
-    <row r="122" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" ht="26.25">
       <c r="A122" s="8"/>
       <c r="B122" s="14"/>
       <c r="C122" s="10"/>
     </row>
-    <row r="123" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" ht="26.25">
       <c r="A123" s="8"/>
       <c r="B123" s="14"/>
       <c r="C123" s="10"/>
     </row>
-    <row r="124" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" ht="26.25">
       <c r="A124" s="8"/>
       <c r="B124" s="14"/>
       <c r="C124" s="10"/>
     </row>
-    <row r="125" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" ht="26.25">
       <c r="A125" s="8"/>
       <c r="B125" s="14"/>
       <c r="C125" s="10"/>
     </row>
-    <row r="126" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="26.25">
       <c r="A126" s="8"/>
       <c r="B126" s="14"/>
       <c r="C126" s="10"/>
     </row>
-    <row r="127" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" ht="26.25">
       <c r="A127" s="8"/>
       <c r="B127" s="14"/>
       <c r="C127" s="10"/>
     </row>
-    <row r="128" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" ht="26.25">
       <c r="A128" s="8"/>
       <c r="B128" s="14"/>
       <c r="C128" s="10"/>
     </row>
-    <row r="129" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" ht="26.25">
       <c r="A129" s="8"/>
       <c r="B129" s="14"/>
       <c r="C129" s="10"/>
     </row>
-    <row r="130" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" ht="26.25">
       <c r="A130" s="8"/>
       <c r="B130" s="14"/>
       <c r="C130" s="10"/>
     </row>
-    <row r="131" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="26.25">
       <c r="A131" s="8"/>
       <c r="B131" s="14"/>
       <c r="C131" s="10"/>
     </row>
-    <row r="132" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="26.25">
       <c r="A132" s="8"/>
       <c r="B132" s="14"/>
       <c r="C132" s="19"/>
     </row>
-    <row r="239" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" ht="26.25">
       <c r="A239" s="3"/>
       <c r="B239" s="22"/>
       <c r="C239" s="10"/>
     </row>
-    <row r="240" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" ht="26.25">
       <c r="A240" s="3"/>
       <c r="B240" s="22"/>
       <c r="C240" s="10"/>
     </row>
-    <row r="241" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" ht="26.25">
       <c r="A241" s="3"/>
       <c r="B241" s="22"/>
       <c r="C241" s="10"/>
     </row>
-    <row r="242" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" ht="26.25">
       <c r="A242" s="3"/>
       <c r="B242" s="22"/>
       <c r="C242" s="10"/>
     </row>
-    <row r="243" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" ht="26.25">
       <c r="A243" s="3"/>
       <c r="B243" s="22"/>
       <c r="C243" s="10"/>
     </row>
-    <row r="244" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" ht="26.25">
       <c r="A244" s="3"/>
       <c r="B244" s="22"/>
       <c r="C244" s="10"/>
     </row>
-    <row r="245" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" ht="26.25">
       <c r="A245" s="3"/>
       <c r="B245" s="22"/>
       <c r="C245" s="10"/>
     </row>
-    <row r="246" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" ht="26.25">
       <c r="A246" s="3"/>
       <c r="B246" s="22"/>
       <c r="C246" s="10"/>
     </row>
-    <row r="247" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" ht="26.25">
       <c r="A247" s="3"/>
       <c r="B247" s="22"/>
       <c r="C247" s="10"/>
     </row>
-    <row r="248" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" ht="26.25">
       <c r="A248" s="3"/>
       <c r="B248" s="22"/>
       <c r="C248" s="10"/>
@@ -5494,22 +5493,22 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A32" r:id="rId1" display="http://minishop.gmarket.co.kr/lottei1" xr:uid="{3107AB9F-1710-4D4F-94DF-3D95EF56B17E}"/>
-    <hyperlink ref="A34" r:id="rId2" display="http://minishop.gmarket.co.kr/dcollect" xr:uid="{4AE7C1C1-8F1A-483B-B6B2-25C9C731F3AD}"/>
-    <hyperlink ref="A40" r:id="rId3" display="http://minishop.gmarket.co.kr/sejungmv" xr:uid="{D58A27EA-4D27-4E58-B872-737CE2651B0A}"/>
-    <hyperlink ref="A42" r:id="rId4" display="http://minishop.gmarket.co.kr/gsshopemd" xr:uid="{F7C8522D-EA12-495E-B8B3-F57B09BE6BCD}"/>
-    <hyperlink ref="A56" r:id="rId5" display="http://minishop.gmarket.co.kr/halfcomfa" xr:uid="{DBBEFE57-87C2-427F-91AF-4AFE603B9BC8}"/>
-    <hyperlink ref="A58" r:id="rId6" display="http://minishop.gmarket.co.kr/cjmall0" xr:uid="{859C8980-2636-4A67-AB8E-C88EA4C433FA}"/>
-    <hyperlink ref="A62" r:id="rId7" display="http://minishop.gmarket.co.kr/lottei1" xr:uid="{77B90B59-3A92-4409-9AF7-584A3B7F2A7E}"/>
-    <hyperlink ref="A65" r:id="rId8" display="http://minishop.gmarket.co.kr/lottetv1" xr:uid="{04DA1076-C736-476A-84F9-B99FB6641C92}"/>
-    <hyperlink ref="A66" r:id="rId9" display="http://minishop.gmarket.co.kr/hnstvc" xr:uid="{EC7092D3-BF7B-4B2B-8486-CAAB9207EBBF}"/>
-    <hyperlink ref="A74" r:id="rId10" display="http://minishop.gmarket.co.kr/ssgtv" xr:uid="{925755C6-B6E2-4508-9E4C-5FACA77B3D37}"/>
-    <hyperlink ref="A76" r:id="rId11" display="http://minishop.gmarket.co.kr/cjosplus" xr:uid="{A2D89FAF-1C35-482F-89B4-9A1E36BE3257}"/>
-    <hyperlink ref="A78" r:id="rId12" display="http://minishop.gmarket.co.kr/lottei1" xr:uid="{930DD854-A64C-4B17-AAE7-F62306088FF9}"/>
-    <hyperlink ref="A82" r:id="rId13" display="http://minishop.gmarket.co.kr/lottetv1" xr:uid="{4ED0B870-618D-434F-A533-23B074C8CBD1}"/>
-    <hyperlink ref="A96" r:id="rId14" display="http://minishop.gmarket.co.kr/galleria6" xr:uid="{8F5D3440-9DEC-4930-9EE4-C976898C6C5D}"/>
-    <hyperlink ref="A98" r:id="rId15" display="http://minishop.gmarket.co.kr/lottei1" xr:uid="{480D4ED5-DE85-48DB-A072-DB5CB2B6B6BE}"/>
-    <hyperlink ref="A100" r:id="rId16" display="http://minishop.gmarket.co.kr/AKMALL2" xr:uid="{6EF1FE70-2691-4778-A7F2-AE78119808AB}"/>
+    <hyperlink ref="A32" r:id="rId1" display="http://minishop.gmarket.co.kr/lottei1"/>
+    <hyperlink ref="A34" r:id="rId2" display="http://minishop.gmarket.co.kr/dcollect"/>
+    <hyperlink ref="A40" r:id="rId3" display="http://minishop.gmarket.co.kr/sejungmv"/>
+    <hyperlink ref="A42" r:id="rId4" display="http://minishop.gmarket.co.kr/gsshopemd"/>
+    <hyperlink ref="A56" r:id="rId5" display="http://minishop.gmarket.co.kr/halfcomfa"/>
+    <hyperlink ref="A58" r:id="rId6" display="http://minishop.gmarket.co.kr/cjmall0"/>
+    <hyperlink ref="A62" r:id="rId7" display="http://minishop.gmarket.co.kr/lottei1"/>
+    <hyperlink ref="A65" r:id="rId8" display="http://minishop.gmarket.co.kr/lottetv1"/>
+    <hyperlink ref="A66" r:id="rId9" display="http://minishop.gmarket.co.kr/hnstvc"/>
+    <hyperlink ref="A74" r:id="rId10" display="http://minishop.gmarket.co.kr/ssgtv"/>
+    <hyperlink ref="A76" r:id="rId11" display="http://minishop.gmarket.co.kr/cjosplus"/>
+    <hyperlink ref="A78" r:id="rId12" display="http://minishop.gmarket.co.kr/lottei1"/>
+    <hyperlink ref="A82" r:id="rId13" display="http://minishop.gmarket.co.kr/lottetv1"/>
+    <hyperlink ref="A96" r:id="rId14" display="http://minishop.gmarket.co.kr/galleria6"/>
+    <hyperlink ref="A98" r:id="rId15" display="http://minishop.gmarket.co.kr/lottei1"/>
+    <hyperlink ref="A100" r:id="rId16" display="http://minishop.gmarket.co.kr/AKMALL2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId17"/>
@@ -5517,32 +5516,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8254D64-615B-4B2A-97B6-AC1D0C229C2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="25.125" style="21" customWidth="1"/>
     <col min="2" max="2" width="86.25" style="21" customWidth="1"/>
     <col min="3" max="3" width="19" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="41.25" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>375</v>
       </c>
       <c r="C1" s="10">
         <v>60520</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="52.5">
       <c r="A2" s="26" t="s">
         <v>177</v>
       </c>
@@ -5553,7 +5552,7 @@
         <v>29250</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="26.25">
       <c r="A3" s="27" t="s">
         <v>180</v>
       </c>
@@ -5564,7 +5563,7 @@
         <v>27720</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="26.25">
       <c r="A4" s="27" t="s">
         <v>377</v>
       </c>
@@ -5575,7 +5574,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="26.25">
       <c r="A5" s="21" t="s">
         <v>179</v>
       </c>
@@ -5586,7 +5585,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="26.25">
       <c r="A6" s="26" t="s">
         <v>185</v>
       </c>
@@ -5597,7 +5596,7 @@
         <v>19900</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="26.25">
       <c r="A7" s="26" t="s">
         <v>179</v>
       </c>
@@ -5608,7 +5607,7 @@
         <v>39780</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="52.5">
       <c r="A8" s="21" t="s">
         <v>188</v>
       </c>
@@ -5619,7 +5618,7 @@
         <v>29900</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="26.25">
       <c r="A9" s="26" t="s">
         <v>190</v>
       </c>
@@ -5630,7 +5629,7 @@
         <v>65460</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="26.25">
       <c r="A10" s="27" t="s">
         <v>180</v>
       </c>
@@ -5641,7 +5640,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="54">
       <c r="A11" s="28" t="s">
         <v>194</v>
       </c>
@@ -5652,7 +5651,7 @@
         <v>22680</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="52.5">
       <c r="A12" s="26" t="s">
         <v>195</v>
       </c>
@@ -5663,7 +5662,7 @@
         <v>17160</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="26.25">
       <c r="A13" s="26" t="s">
         <v>179</v>
       </c>
@@ -5674,7 +5673,7 @@
         <v>62560</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="27">
       <c r="A14" s="26" t="s">
         <v>198</v>
       </c>
@@ -5685,7 +5684,7 @@
         <v>64350</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="26.25">
       <c r="A15" s="26" t="s">
         <v>195</v>
       </c>
@@ -5696,7 +5695,7 @@
         <v>20400</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="26.25">
       <c r="A16" s="26" t="s">
         <v>179</v>
       </c>
@@ -5707,7 +5706,7 @@
         <v>37400</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="26.25">
       <c r="A17" s="26" t="s">
         <v>179</v>
       </c>
@@ -5718,7 +5717,7 @@
         <v>34200</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="52.5">
       <c r="A18" s="26" t="s">
         <v>175</v>
       </c>
@@ -5729,7 +5728,7 @@
         <v>24900</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="26.25">
       <c r="A19" s="26" t="s">
         <v>179</v>
       </c>
@@ -5740,7 +5739,7 @@
         <v>33320</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="26.25">
       <c r="A20" s="26" t="s">
         <v>163</v>
       </c>
@@ -5751,7 +5750,7 @@
         <v>86180</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="26.25">
       <c r="A21" s="26" t="s">
         <v>132</v>
       </c>
@@ -5762,7 +5761,7 @@
         <v>89100</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="52.5">
       <c r="A22" s="26" t="s">
         <v>179</v>
       </c>
@@ -5773,7 +5772,7 @@
         <v>34630</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="52.5">
       <c r="A23" s="26" t="s">
         <v>208</v>
       </c>
@@ -5784,7 +5783,7 @@
         <v>52440</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="26.25">
       <c r="A24" s="26" t="s">
         <v>182</v>
       </c>
@@ -5795,7 +5794,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="26.25">
       <c r="A25" s="26" t="s">
         <v>195</v>
       </c>
@@ -5806,7 +5805,7 @@
         <v>18240</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="52.5">
       <c r="A26" s="26" t="s">
         <v>195</v>
       </c>
@@ -5817,7 +5816,7 @@
         <v>17160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="52.5">
       <c r="A27" s="26" t="s">
         <v>179</v>
       </c>
@@ -5828,7 +5827,7 @@
         <v>28860</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="26.25">
       <c r="A28" s="26" t="s">
         <v>214</v>
       </c>
@@ -5839,7 +5838,7 @@
         <v>31880</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="26.25">
       <c r="A29" s="26" t="s">
         <v>216</v>
       </c>
@@ -5850,7 +5849,7 @@
         <v>79200</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="52.5">
       <c r="A30" s="26" t="s">
         <v>195</v>
       </c>
@@ -5864,27 +5863,27 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1" display="http://minishop.gmarket.co.kr/shinsegae9" xr:uid="{D86563B4-EBEF-403A-A039-FDEFB94000D1}"/>
+    <hyperlink ref="A11" r:id="rId1" display="http://minishop.gmarket.co.kr/shinsegae9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AA3E76-B331-41EF-8658-B5A3C2139665}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="29.5" customWidth="1"/>
     <col min="2" max="3" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="26.25">
       <c r="A1" s="8" t="s">
         <v>219</v>
       </c>
@@ -5895,7 +5894,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="26.25">
       <c r="A2" s="8" t="s">
         <v>221</v>
       </c>
@@ -5906,7 +5905,7 @@
         <v>5070</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="26.25">
       <c r="A3" s="8" t="s">
         <v>132</v>
       </c>
@@ -5917,7 +5916,7 @@
         <v>22900</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="26.25">
       <c r="A4" s="8" t="s">
         <v>224</v>
       </c>
@@ -5928,7 +5927,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="26.25">
       <c r="A5" s="29" t="s">
         <v>226</v>
       </c>
@@ -5939,7 +5938,7 @@
         <v>20900</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="26.25">
       <c r="A6" s="8" t="s">
         <v>228</v>
       </c>
@@ -5950,7 +5949,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="26.25">
       <c r="A7" s="15" t="s">
         <v>230</v>
       </c>
@@ -5961,7 +5960,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="26.25">
       <c r="A8" s="8" t="s">
         <v>228</v>
       </c>
@@ -5972,7 +5971,7 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="26.25">
       <c r="A9" s="8" t="s">
         <v>228</v>
       </c>
@@ -5983,7 +5982,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="26.25">
       <c r="A10" s="8" t="s">
         <v>224</v>
       </c>
@@ -5994,7 +5993,7 @@
         <v>19900</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="26.25">
       <c r="A11" s="8" t="s">
         <v>221</v>
       </c>
@@ -6005,7 +6004,7 @@
         <v>39900</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="26.25">
       <c r="A12" s="8" t="s">
         <v>235</v>
       </c>
@@ -6016,7 +6015,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="26.25">
       <c r="A13" s="8" t="s">
         <v>237</v>
       </c>
@@ -6027,7 +6026,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="26.25">
       <c r="A14" s="8" t="s">
         <v>221</v>
       </c>
@@ -6038,7 +6037,7 @@
         <v>14900</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="26.25">
       <c r="A15" s="8" t="s">
         <v>221</v>
       </c>
@@ -6049,7 +6048,7 @@
         <v>54900</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="26.25">
       <c r="A16" s="8" t="s">
         <v>221</v>
       </c>
@@ -6060,7 +6059,7 @@
         <v>23630</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="26.25">
       <c r="A17" s="8" t="s">
         <v>242</v>
       </c>
@@ -6071,7 +6070,7 @@
         <v>39900</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="26.25">
       <c r="A18" s="8" t="s">
         <v>167</v>
       </c>
@@ -6082,7 +6081,7 @@
         <v>49520</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="26.25">
       <c r="A19" s="8" t="s">
         <v>221</v>
       </c>
@@ -6093,7 +6092,7 @@
         <v>22020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="26.25">
       <c r="A20" s="8" t="s">
         <v>246</v>
       </c>
@@ -6104,7 +6103,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="26.25">
       <c r="A21" s="8" t="s">
         <v>248</v>
       </c>
@@ -6115,7 +6114,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="26.25">
       <c r="A22" s="8" t="s">
         <v>250</v>
       </c>
@@ -6126,7 +6125,7 @@
         <v>67200</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="26.25">
       <c r="A23" s="29" t="s">
         <v>252</v>
       </c>
@@ -6137,7 +6136,7 @@
         <v>39900</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="26.25">
       <c r="A24" s="8" t="s">
         <v>254</v>
       </c>
@@ -6148,7 +6147,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="26.25">
       <c r="A25" s="8" t="s">
         <v>221</v>
       </c>
@@ -6159,7 +6158,7 @@
         <v>12900</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="26.25">
       <c r="A26" s="8" t="s">
         <v>221</v>
       </c>
@@ -6170,7 +6169,7 @@
         <v>39900</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="26.25">
       <c r="A27" s="15" t="s">
         <v>258</v>
       </c>
@@ -6181,7 +6180,7 @@
         <v>22020</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="26.25">
       <c r="A28" s="8" t="s">
         <v>167</v>
       </c>
@@ -6192,7 +6191,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="26.25">
       <c r="A29" s="8" t="s">
         <v>221</v>
       </c>
@@ -6203,7 +6202,7 @@
         <v>23720</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="26.25">
       <c r="A30" s="8" t="s">
         <v>167</v>
       </c>
@@ -6217,29 +6216,29 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" display="http://minishop.gmarket.co.kr/webddlehc" xr:uid="{5FF6C5DC-5E2D-412C-8965-791794B4B4DE}"/>
-    <hyperlink ref="A23" r:id="rId2" display="http://minishop.gmarket.co.kr/gsgm01" xr:uid="{4B299198-0976-408D-893A-CE7CF8EF092D}"/>
+    <hyperlink ref="A5" r:id="rId1" display="http://minishop.gmarket.co.kr/webddlehc"/>
+    <hyperlink ref="A23" r:id="rId2" display="http://minishop.gmarket.co.kr/gsgm01"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C63E6B-3ACB-443C-98CD-6A2FA7C5C04B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="84.75" customWidth="1"/>
     <col min="3" max="3" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="26.25">
       <c r="A1" s="8" t="s">
         <v>263</v>
       </c>
@@ -6250,7 +6249,7 @@
         <v>12900</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="26.25">
       <c r="A2" s="8" t="s">
         <v>265</v>
       </c>
@@ -6261,7 +6260,7 @@
         <v>63000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="26.25">
       <c r="A3" s="8" t="s">
         <v>267</v>
       </c>
@@ -6272,7 +6271,7 @@
         <v>35400</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="26.25">
       <c r="A4" s="8" t="s">
         <v>269</v>
       </c>
@@ -6283,7 +6282,7 @@
         <v>29360</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="26.25">
       <c r="A5" s="15" t="s">
         <v>378</v>
       </c>
@@ -6294,7 +6293,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="26.25">
       <c r="A6" s="29" t="s">
         <v>272</v>
       </c>
@@ -6305,7 +6304,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="26.25">
       <c r="A7" s="8" t="s">
         <v>274</v>
       </c>
@@ -6316,7 +6315,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="26.25">
       <c r="A8" s="8" t="s">
         <v>90</v>
       </c>
@@ -6327,7 +6326,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="26.25">
       <c r="A9" s="8" t="s">
         <v>277</v>
       </c>
@@ -6338,7 +6337,7 @@
         <v>29240</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="26.25">
       <c r="A10" s="15" t="s">
         <v>379</v>
       </c>
@@ -6349,7 +6348,7 @@
         <v>16600</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="26.25">
       <c r="A11" s="8" t="s">
         <v>280</v>
       </c>
@@ -6360,7 +6359,7 @@
         <v>29600</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="26.25">
       <c r="A12" s="8" t="s">
         <v>280</v>
       </c>
@@ -6371,7 +6370,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="26.25">
       <c r="A13" s="29" t="s">
         <v>283</v>
       </c>
@@ -6382,7 +6381,7 @@
         <v>19900</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="26.25">
       <c r="A14" s="8" t="s">
         <v>285</v>
       </c>
@@ -6393,7 +6392,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="26.25">
       <c r="A15" s="8" t="s">
         <v>280</v>
       </c>
@@ -6404,7 +6403,7 @@
         <v>23200</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="26.25">
       <c r="A16" s="8" t="s">
         <v>280</v>
       </c>
@@ -6415,7 +6414,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="26.25">
       <c r="A17" s="8" t="s">
         <v>289</v>
       </c>
@@ -6426,7 +6425,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="26.25">
       <c r="A18" s="8" t="s">
         <v>198</v>
       </c>
@@ -6437,7 +6436,7 @@
         <v>30810</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="26.25">
       <c r="A19" s="8" t="s">
         <v>289</v>
       </c>
@@ -6448,7 +6447,7 @@
         <v>24180</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="26.25">
       <c r="A20" s="8" t="s">
         <v>280</v>
       </c>
@@ -6459,7 +6458,7 @@
         <v>29640</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="26.25">
       <c r="A21" s="8" t="s">
         <v>294</v>
       </c>
@@ -6470,7 +6469,7 @@
         <v>55200</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="26.25">
       <c r="A22" s="8" t="s">
         <v>198</v>
       </c>
@@ -6481,7 +6480,7 @@
         <v>51350</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="26.25">
       <c r="A23" s="15" t="s">
         <v>280</v>
       </c>
@@ -6492,7 +6491,7 @@
         <v>37760</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="26.25">
       <c r="A24" s="8" t="s">
         <v>294</v>
       </c>
@@ -6503,7 +6502,7 @@
         <v>33180</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="26.25">
       <c r="A25" s="8" t="s">
         <v>299</v>
       </c>
@@ -6514,7 +6513,7 @@
         <v>25040</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="26.25">
       <c r="A26" s="8" t="s">
         <v>294</v>
       </c>
@@ -6525,7 +6524,7 @@
         <v>12640</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="26.25">
       <c r="A27" s="8" t="s">
         <v>294</v>
       </c>
@@ -6536,7 +6535,7 @@
         <v>5780</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="26.25">
       <c r="A28" s="29" t="s">
         <v>59</v>
       </c>
@@ -6547,7 +6546,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="26.25">
       <c r="A29" s="29" t="s">
         <v>304</v>
       </c>
@@ -6558,7 +6557,7 @@
         <v>32930</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="26.25">
       <c r="A30" s="8" t="s">
         <v>198</v>
       </c>
@@ -6569,7 +6568,7 @@
         <v>137910</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="26.25">
       <c r="A31" s="8" t="s">
         <v>216</v>
       </c>
@@ -6583,31 +6582,31 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="http://minishop.gmarket.co.kr/ekumkang" xr:uid="{3E05AB6F-D8DD-4292-B8A3-429050FA01CE}"/>
-    <hyperlink ref="A13" r:id="rId2" display="http://minishop.gmarket.co.kr/ssgtvon" xr:uid="{268E49E3-FB5A-40FC-8C89-A1A95F881292}"/>
-    <hyperlink ref="A28" r:id="rId3" display="http://minishop.gmarket.co.kr/lottei1" xr:uid="{C56D6BBC-591A-430E-A23F-0F6C7D0CAA8D}"/>
-    <hyperlink ref="A29" r:id="rId4" display="http://minishop.gmarket.co.kr/skstoamall" xr:uid="{D0BB1015-E24E-4575-A64D-4DDC9249B8B6}"/>
+    <hyperlink ref="A6" r:id="rId1" display="http://minishop.gmarket.co.kr/ekumkang"/>
+    <hyperlink ref="A13" r:id="rId2" display="http://minishop.gmarket.co.kr/ssgtvon"/>
+    <hyperlink ref="A28" r:id="rId3" display="http://minishop.gmarket.co.kr/lottei1"/>
+    <hyperlink ref="A29" r:id="rId4" display="http://minishop.gmarket.co.kr/skstoamall"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5834CFD-8B52-49F8-9AA0-06C50D79C508}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="92.5" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="26.25">
       <c r="A1" s="8" t="s">
         <v>308</v>
       </c>
@@ -6618,7 +6617,7 @@
         <v>58900</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="26.25">
       <c r="A2" s="15" t="s">
         <v>381</v>
       </c>
@@ -6629,7 +6628,7 @@
         <v>39900</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="26.25">
       <c r="A3" s="29" t="s">
         <v>382</v>
       </c>
@@ -6640,7 +6639,7 @@
         <v>15900</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="26.25">
       <c r="A4" s="29" t="s">
         <v>312</v>
       </c>
@@ -6651,7 +6650,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="26.25">
       <c r="A5" s="8" t="s">
         <v>313</v>
       </c>
@@ -6662,7 +6661,7 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="26.25">
       <c r="A6" s="8" t="s">
         <v>315</v>
       </c>
@@ -6673,7 +6672,7 @@
         <v>14900</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="26.25">
       <c r="A7" s="29" t="s">
         <v>317</v>
       </c>
@@ -6684,7 +6683,7 @@
         <v>64780</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="26.25">
       <c r="A8" s="8" t="s">
         <v>319</v>
       </c>
@@ -6695,7 +6694,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="26.25">
       <c r="A9" s="8" t="s">
         <v>321</v>
       </c>
@@ -6706,7 +6705,7 @@
         <v>158000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="26.25">
       <c r="A10" s="8" t="s">
         <v>323</v>
       </c>
@@ -6717,7 +6716,7 @@
         <v>169000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="26.25">
       <c r="A11" s="8" t="s">
         <v>325</v>
       </c>
@@ -6728,7 +6727,7 @@
         <v>152000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="26.25">
       <c r="A12" s="8" t="s">
         <v>327</v>
       </c>
@@ -6739,7 +6738,7 @@
         <v>185000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="26.25">
       <c r="A13" s="15" t="s">
         <v>328</v>
       </c>
@@ -6750,7 +6749,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="26.25">
       <c r="A14" s="8" t="s">
         <v>308</v>
       </c>
@@ -6761,7 +6760,7 @@
         <v>174000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="26.25">
       <c r="A15" s="29" t="s">
         <v>103</v>
       </c>
@@ -6772,7 +6771,7 @@
         <v>186220</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="26.25">
       <c r="A16" s="8" t="s">
         <v>332</v>
       </c>
@@ -6783,7 +6782,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="26.25">
       <c r="A17" s="8" t="s">
         <v>334</v>
       </c>
@@ -6794,7 +6793,7 @@
         <v>84550</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="26.25">
       <c r="A18" s="29" t="s">
         <v>336</v>
       </c>
@@ -6805,7 +6804,7 @@
         <v>617400</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="26.25">
       <c r="A19" s="29" t="s">
         <v>59</v>
       </c>
@@ -6816,7 +6815,7 @@
         <v>40650</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="26.25">
       <c r="A20" s="29" t="s">
         <v>339</v>
       </c>
@@ -6827,7 +6826,7 @@
         <v>269320</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="26.25">
       <c r="A21" s="29" t="s">
         <v>317</v>
       </c>
@@ -6838,7 +6837,7 @@
         <v>385420</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="26.25">
       <c r="A22" s="8" t="s">
         <v>342</v>
       </c>
@@ -6849,7 +6848,7 @@
         <v>446000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="26.25">
       <c r="A23" s="29" t="s">
         <v>344</v>
       </c>
@@ -6860,7 +6859,7 @@
         <v>451600</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="26.25">
       <c r="A24" s="29" t="s">
         <v>59</v>
       </c>
@@ -6871,7 +6870,7 @@
         <v>319900</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="26.25">
       <c r="A25" s="15" t="s">
         <v>347</v>
       </c>
@@ -6882,7 +6881,7 @@
         <v>540000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="26.25">
       <c r="A26" s="29" t="s">
         <v>59</v>
       </c>
@@ -6893,7 +6892,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="26.25">
       <c r="A27" s="29" t="s">
         <v>317</v>
       </c>
@@ -6904,7 +6903,7 @@
         <v>160950</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="26.25">
       <c r="A28" s="29" t="s">
         <v>351</v>
       </c>
@@ -6915,7 +6914,7 @@
         <v>198000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="26.25">
       <c r="A29" s="8" t="s">
         <v>315</v>
       </c>
@@ -6926,7 +6925,7 @@
         <v>119000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="26.25">
       <c r="A30" s="29" t="s">
         <v>344</v>
       </c>
@@ -6940,41 +6939,41 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="http://minishop.gmarket.co.kr/eworldost" xr:uid="{AEA06F3D-50A3-46BC-A74E-ED85C33E152F}"/>
-    <hyperlink ref="A4" r:id="rId2" display="http://minishop.gmarket.co.kr/watchstation" xr:uid="{E3942E08-67EF-47DF-991A-67033401E50A}"/>
-    <hyperlink ref="A7" r:id="rId3" display="http://minishop.gmarket.co.kr/akmall01" xr:uid="{4F175012-56CE-4198-B77F-AB7263E1F3C7}"/>
-    <hyperlink ref="A15" r:id="rId4" display="http://minishop.gmarket.co.kr/cjmall0" xr:uid="{A5265F7E-347D-4218-B4B6-6BDACDC8FC97}"/>
-    <hyperlink ref="A18" r:id="rId5" display="http://minishop.gmarket.co.kr/lottei2" xr:uid="{828B11AE-C468-403D-ACF9-73FD5F79C27A}"/>
-    <hyperlink ref="A19" r:id="rId6" display="http://minishop.gmarket.co.kr/lottei1" xr:uid="{F44DE21C-BFE9-40A7-A8D6-B5F702510658}"/>
-    <hyperlink ref="A20" r:id="rId7" display="http://minishop.gmarket.co.kr/ssgmall" xr:uid="{13AB3A12-808F-436D-BBF7-FB6A3C3911B5}"/>
-    <hyperlink ref="A21" r:id="rId8" display="http://minishop.gmarket.co.kr/akmall01" xr:uid="{EB4A496C-C01B-4C62-AFB4-B87450B113C5}"/>
-    <hyperlink ref="A23" r:id="rId9" display="http://minishop.gmarket.co.kr/trendmecca" xr:uid="{89760CCF-E5F0-431D-BD24-027939591FC7}"/>
-    <hyperlink ref="A24" r:id="rId10" display="http://minishop.gmarket.co.kr/lottei1" xr:uid="{EB4E332A-5C37-42FB-B854-06E27C0815FF}"/>
-    <hyperlink ref="A26" r:id="rId11" display="http://minishop.gmarket.co.kr/lottei1" xr:uid="{63BE7184-276F-41E2-AE83-223913C28270}"/>
-    <hyperlink ref="A27" r:id="rId12" display="http://minishop.gmarket.co.kr/akmall01" xr:uid="{F7437450-555D-4265-88CB-EA1C7CDDA9B5}"/>
-    <hyperlink ref="A28" r:id="rId13" display="http://minishop.gmarket.co.kr/doktukhan" xr:uid="{5AF83C03-3415-4783-88AB-27259FBAE1E2}"/>
-    <hyperlink ref="A30" r:id="rId14" display="http://minishop.gmarket.co.kr/trendmecca" xr:uid="{0D1E9677-B8A9-4C67-A606-0FAF24DFD1DA}"/>
+    <hyperlink ref="A3" r:id="rId1" display="http://minishop.gmarket.co.kr/eworldost"/>
+    <hyperlink ref="A4" r:id="rId2" display="http://minishop.gmarket.co.kr/watchstation"/>
+    <hyperlink ref="A7" r:id="rId3" display="http://minishop.gmarket.co.kr/akmall01"/>
+    <hyperlink ref="A15" r:id="rId4" display="http://minishop.gmarket.co.kr/cjmall0"/>
+    <hyperlink ref="A18" r:id="rId5" display="http://minishop.gmarket.co.kr/lottei2"/>
+    <hyperlink ref="A19" r:id="rId6" display="http://minishop.gmarket.co.kr/lottei1"/>
+    <hyperlink ref="A20" r:id="rId7" display="http://minishop.gmarket.co.kr/ssgmall"/>
+    <hyperlink ref="A21" r:id="rId8" display="http://minishop.gmarket.co.kr/akmall01"/>
+    <hyperlink ref="A23" r:id="rId9" display="http://minishop.gmarket.co.kr/trendmecca"/>
+    <hyperlink ref="A24" r:id="rId10" display="http://minishop.gmarket.co.kr/lottei1"/>
+    <hyperlink ref="A26" r:id="rId11" display="http://minishop.gmarket.co.kr/lottei1"/>
+    <hyperlink ref="A27" r:id="rId12" display="http://minishop.gmarket.co.kr/akmall01"/>
+    <hyperlink ref="A28" r:id="rId13" display="http://minishop.gmarket.co.kr/doktukhan"/>
+    <hyperlink ref="A30" r:id="rId14" display="http://minishop.gmarket.co.kr/trendmecca"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBA6D31-B46C-4670-B555-8B51E59AE8B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="87.75" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="26.25">
       <c r="A1" s="8" t="s">
         <v>355</v>
       </c>
@@ -6985,7 +6984,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="26.25">
       <c r="A2" s="8" t="s">
         <v>357</v>
       </c>
@@ -6996,18 +6995,18 @@
         <v>103980</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="26.25">
       <c r="A3" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>384</v>
       </c>
       <c r="C3" s="10">
         <v>152620</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="26.25">
       <c r="A4" s="8" t="s">
         <v>358</v>
       </c>
@@ -7018,7 +7017,7 @@
         <v>88020</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="26.25">
       <c r="A5" s="15" t="s">
         <v>361</v>
       </c>
@@ -7029,7 +7028,7 @@
         <v>49900</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="26.25">
       <c r="A6" s="8" t="s">
         <v>363</v>
       </c>
@@ -7040,7 +7039,7 @@
         <v>37900</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="26.25">
       <c r="A7" s="8" t="s">
         <v>367</v>
       </c>
@@ -7051,7 +7050,7 @@
         <v>39900</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="26.25">
       <c r="A8" s="29" t="s">
         <v>369</v>
       </c>
@@ -7062,7 +7061,7 @@
         <v>11900</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="26.25">
       <c r="A9" s="29" t="s">
         <v>371</v>
       </c>
@@ -7073,7 +7072,7 @@
         <v>244130</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="26.25">
       <c r="A10" s="8" t="s">
         <v>358</v>
       </c>
@@ -7087,8 +7086,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" display="http://corners.gmarket.co.kr/SmileDelivery" xr:uid="{0318D358-BEB2-4AC4-8AE9-8DAA49278B24}"/>
-    <hyperlink ref="A9" r:id="rId2" display="http://minishop.gmarket.co.kr/lottedep1" xr:uid="{6E7FC53B-B6FE-46CD-8CA3-468B6D6A6733}"/>
+    <hyperlink ref="A8" r:id="rId1" display="http://corners.gmarket.co.kr/SmileDelivery"/>
+    <hyperlink ref="A9" r:id="rId2" display="http://minishop.gmarket.co.kr/lottedep1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
